--- a/PM_QuanLyThuVien/Database/DataExcel/NXB.xlsx
+++ b/PM_QuanLyThuVien/Database/DataExcel/NXB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="112">
   <si>
     <t>MaNXB</t>
   </si>
@@ -27,334 +27,334 @@
     <t>TenNXB</t>
   </si>
   <si>
-    <t>NBX001</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Chính trị Quốc gia</t>
   </si>
   <si>
-    <t>NBX002</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Tư pháp</t>
   </si>
   <si>
-    <t>NBX003</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Hồng Đức</t>
   </si>
   <si>
-    <t>NBX004</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Quân đội</t>
   </si>
   <si>
-    <t>NBX005</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Công an nhân dân</t>
   </si>
   <si>
-    <t>NBX006</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Kim Đồng</t>
   </si>
   <si>
-    <t>NBX007</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thanh niên</t>
   </si>
   <si>
-    <t>NBX008</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Lao động</t>
   </si>
   <si>
-    <t>NBX009</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Phụ nữ</t>
   </si>
   <si>
-    <t>NBX010</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Mỹ thuật</t>
   </si>
   <si>
-    <t>NBX011</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Sân khấu</t>
   </si>
   <si>
-    <t>NBX012</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Hội nhà văn</t>
   </si>
   <si>
-    <t>NBX013</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Lao động xã hội</t>
   </si>
   <si>
-    <t>NBX014</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Khoa học xã hội</t>
   </si>
   <si>
-    <t>NBX015</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Tôn giáo</t>
   </si>
   <si>
-    <t>NBX016</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thông tấn</t>
   </si>
   <si>
-    <t>NBX017</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Bản đồ</t>
   </si>
   <si>
-    <t>NBX018</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Bưu điện</t>
   </si>
   <si>
-    <t>NBX019</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Giao thông</t>
   </si>
   <si>
-    <t>NBX020</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Khoa học và kỹ thuật</t>
   </si>
   <si>
-    <t>NBX021</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Khoa học tự nhiên và Công nghệ</t>
   </si>
   <si>
-    <t>NBX022</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Nông nghiệp</t>
   </si>
   <si>
-    <t>NBX023</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Tài chính</t>
   </si>
   <si>
-    <t>NBX024</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thống kê</t>
   </si>
   <si>
-    <t>NBX025</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thể dục thể thao</t>
   </si>
   <si>
-    <t>NBX026</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Y học</t>
   </si>
   <si>
-    <t>NBX027</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Xây dựng</t>
   </si>
   <si>
-    <t>NBX028</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Từ điển bách khoa</t>
   </si>
   <si>
-    <t>NBX029</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Tri thức</t>
   </si>
   <si>
-    <t>NBX030</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thế giới</t>
   </si>
   <si>
-    <t>NBX031</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Âm nhạc</t>
   </si>
   <si>
-    <t>NBX032</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Văn học</t>
   </si>
   <si>
-    <t>NBX033</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Văn hoá dân tộc</t>
   </si>
   <si>
-    <t>NBX034</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Văn hoá - Thông tin</t>
   </si>
   <si>
-    <t>NBX035</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Lý luận chính trị</t>
   </si>
   <si>
-    <t>NBX036</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học kinh tế quốc dân</t>
   </si>
   <si>
-    <t>NBX037</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học Bách khoa Hà Nội</t>
   </si>
   <si>
-    <t>NBX038</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học Huế</t>
   </si>
   <si>
-    <t>NBX039</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học Quốc gia Hà Nội</t>
   </si>
   <si>
-    <t>NBX040</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học sư phạm</t>
   </si>
   <si>
-    <t>NBX041</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học Quốc gia thành phố Hồ Chí Minh</t>
   </si>
   <si>
-    <t>NBX042</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Giáo dục</t>
   </si>
   <si>
-    <t>NBX043</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đại học Thái Nguyên</t>
   </si>
   <si>
-    <t>NBX044</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Hà Nội</t>
   </si>
   <si>
-    <t>NBX045</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Hải phòng</t>
   </si>
   <si>
-    <t>NBX046</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thanh Hoá</t>
   </si>
   <si>
-    <t>NBX047</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Nghệ An</t>
   </si>
   <si>
-    <t>NBX048</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Thuận Hoá</t>
   </si>
   <si>
-    <t>NBX049</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đà Nẵng</t>
   </si>
   <si>
-    <t>NBX050</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Văn hoá Sài gòn</t>
   </si>
   <si>
-    <t>NBX051</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Tổng hợp thành phố Hồ Chí Minh</t>
   </si>
   <si>
-    <t>NBX052</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Trẻ</t>
   </si>
   <si>
-    <t>NBX053</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Văn nghệ</t>
   </si>
   <si>
-    <t>NBX054</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Đồng Nai</t>
   </si>
   <si>
-    <t>NBX055</t>
-  </si>
-  <si>
     <t>Nhà xuất bản Phương Đông</t>
+  </si>
+  <si>
+    <t>NXB0000001</t>
+  </si>
+  <si>
+    <t>NXB0000002</t>
+  </si>
+  <si>
+    <t>NXB0000003</t>
+  </si>
+  <si>
+    <t>NXB0000004</t>
+  </si>
+  <si>
+    <t>NXB0000005</t>
+  </si>
+  <si>
+    <t>NXB0000006</t>
+  </si>
+  <si>
+    <t>NXB0000007</t>
+  </si>
+  <si>
+    <t>NXB0000008</t>
+  </si>
+  <si>
+    <t>NXB0000009</t>
+  </si>
+  <si>
+    <t>NXB0000010</t>
+  </si>
+  <si>
+    <t>NXB0000011</t>
+  </si>
+  <si>
+    <t>NXB0000012</t>
+  </si>
+  <si>
+    <t>NXB0000013</t>
+  </si>
+  <si>
+    <t>NXB0000014</t>
+  </si>
+  <si>
+    <t>NXB0000015</t>
+  </si>
+  <si>
+    <t>NXB0000016</t>
+  </si>
+  <si>
+    <t>NXB0000017</t>
+  </si>
+  <si>
+    <t>NXB0000018</t>
+  </si>
+  <si>
+    <t>NXB0000019</t>
+  </si>
+  <si>
+    <t>NXB0000020</t>
+  </si>
+  <si>
+    <t>NXB0000021</t>
+  </si>
+  <si>
+    <t>NXB0000022</t>
+  </si>
+  <si>
+    <t>NXB0000023</t>
+  </si>
+  <si>
+    <t>NXB0000024</t>
+  </si>
+  <si>
+    <t>NXB0000025</t>
+  </si>
+  <si>
+    <t>NXB0000026</t>
+  </si>
+  <si>
+    <t>NXB0000027</t>
+  </si>
+  <si>
+    <t>NXB0000028</t>
+  </si>
+  <si>
+    <t>NXB0000029</t>
+  </si>
+  <si>
+    <t>NXB0000030</t>
+  </si>
+  <si>
+    <t>NXB0000031</t>
+  </si>
+  <si>
+    <t>NXB0000032</t>
+  </si>
+  <si>
+    <t>NXB0000033</t>
+  </si>
+  <si>
+    <t>NXB0000034</t>
+  </si>
+  <si>
+    <t>NXB0000035</t>
+  </si>
+  <si>
+    <t>NXB0000036</t>
+  </si>
+  <si>
+    <t>NXB0000037</t>
+  </si>
+  <si>
+    <t>NXB0000038</t>
+  </si>
+  <si>
+    <t>NXB0000039</t>
+  </si>
+  <si>
+    <t>NXB0000040</t>
+  </si>
+  <si>
+    <t>NXB0000041</t>
+  </si>
+  <si>
+    <t>NXB0000042</t>
+  </si>
+  <si>
+    <t>NXB0000043</t>
+  </si>
+  <si>
+    <t>NXB0000044</t>
+  </si>
+  <si>
+    <t>NXB0000045</t>
+  </si>
+  <si>
+    <t>NXB0000046</t>
+  </si>
+  <si>
+    <t>NXB0000047</t>
+  </si>
+  <si>
+    <t>NXB0000048</t>
+  </si>
+  <si>
+    <t>NXB0000049</t>
+  </si>
+  <si>
+    <t>NXB0000050</t>
+  </si>
+  <si>
+    <t>NXB0000051</t>
+  </si>
+  <si>
+    <t>NXB0000052</t>
+  </si>
+  <si>
+    <t>NXB0000053</t>
+  </si>
+  <si>
+    <t>NXB0000054</t>
+  </si>
+  <si>
+    <t>NXB0000055</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -445,7 +445,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -729,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C57"/>
+  <dimension ref="B1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.5703125" customWidth="1"/>
     <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,444 +751,667 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <f>LEN(B3)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="F4">
+        <f t="shared" ref="F4:F57" si="0">LEN(B4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="3" t="s">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>111</v>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
